--- a/templates/Final/Segment_Config_Template_Annotated_Final.xlsx
+++ b/templates/Final/Segment_Config_Template_Annotated_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{038BF479-5229-1742-B868-8328C888C648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90727DF4-8ADE-7948-9B4D-BE9A3CE54A02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28980" windowHeight="24780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28980" windowHeight="24780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,6 @@
     <t>Segment Configuration Template - Instructions</t>
   </si>
   <si>
-    <t>Created: 2025-12-02</t>
-  </si>
-  <si>
     <t>OVERVIEW</t>
   </si>
   <si>
@@ -1775,13 +1772,16 @@
   </si>
   <si>
     <t>The label file format is as follows (separate file)</t>
+  </si>
+  <si>
+    <t>Version 10.0 Last updated 4 December 2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1797,23 +1797,10 @@
       <family val="2"/>
     </font>
     <font>
-      <i/>
-      <sz val="9"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1883,13 +1870,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF383A42"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
@@ -1913,6 +1893,12 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1963,35 +1949,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2296,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F273"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A85" sqref="A85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2306,971 +2291,977 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
     <row r="20" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="10" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="14" t="s">
+      <c r="B55" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="C55" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="D55" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="D55" s="14" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="6">
+        <v>3</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
-        <v>3</v>
-      </c>
-      <c r="B56" s="10" t="s">
+      <c r="C56" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="D56" s="6"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="6">
+        <v>4</v>
+      </c>
+      <c r="B57" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="D56" s="10"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="10">
-        <v>4</v>
-      </c>
-      <c r="B57" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="D57" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="D57" s="10" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="6">
+        <v>5</v>
+      </c>
+      <c r="B58" s="6" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
-        <v>5</v>
-      </c>
-      <c r="B58" s="10" t="s">
+      <c r="C58" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="D58" s="6"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="6">
+        <v>6</v>
+      </c>
+      <c r="B59" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="D58" s="10"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
-        <v>6</v>
-      </c>
-      <c r="B59" s="10" t="s">
+      <c r="C59" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="D59" s="6"/>
+    </row>
+    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="D59" s="10"/>
-    </row>
-    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+    </row>
+    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A71" s="12" t="s">
+    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A74" s="15" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A75" s="9" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A76" s="9" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A79" s="9" t="s">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A80" s="9" t="s">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+    <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A88" s="9" t="s">
+    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A94" s="9" t="s">
+    <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A95" s="9" t="s">
+    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A96" s="9" t="s">
+    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A97" s="9" t="s">
+    <row r="101" spans="1:1" ht="23" x14ac:dyDescent="0.25">
+      <c r="A101" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="23" x14ac:dyDescent="0.25">
-      <c r="A101" s="11" t="s">
+    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="8" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A103" s="12" t="s">
+    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
+    <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="8" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A107" s="12" t="s">
+    <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="5" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A111" s="9" t="s">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A112" s="9" t="s">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A114" s="9" t="s">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A115" s="9" t="s">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A116" s="9" t="s">
+    <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A118" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A118" s="12" t="s">
+    <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
+    <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A122" s="8" t="s">
+    <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A123" s="8" t="s">
+    <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
+    <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A128" s="9" t="s">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A129" s="9" t="s">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="5" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A130" s="9" t="s">
+    <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A132" s="7" t="s">
+    <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A134" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A134" s="8" t="s">
+    <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A135" s="4" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A135" s="8" t="s">
+    <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A136" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A136" s="8" t="s">
+    <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A137" s="7" t="s">
+    <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A139" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="5" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A139" s="7" t="s">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="5" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A146" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A148" s="4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A150" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A152" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A153" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A155" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A157" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A158" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A159" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A160" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A162" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A164" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A165" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A167" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A169" s="5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A170" s="5" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="5" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A175" s="8" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A177" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A181" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A186" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A187" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A189" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A191" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A192" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A194" s="5" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="5" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A141" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A142" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A143" s="9" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="5" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A201" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A202" s="5" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A144" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A146" s="7" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A148" s="8" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A150" s="7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A152" s="8" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A153" s="8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A155" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A157" s="8" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A158" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A159" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A160" s="8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A162" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A164" s="8" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A165" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A167" s="7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A169" s="9" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A170" s="9" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A172" s="9" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A173" s="9" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A175" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A177" s="7" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A179" s="9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A180" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A181" s="9" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A182" s="9" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A183" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A184" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A185" s="9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A186" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A187" s="9" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A189" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A191" s="9" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A192" s="9" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A194" s="9" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A195" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A196" s="9" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A197" s="9" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A199" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A200" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A201" s="9" t="s">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A204" s="5" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A202" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A204" s="9" t="s">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A205" s="5" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A205" s="9" t="s">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A207" s="5" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A207" s="9" t="s">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A208" s="5" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A208" s="9" t="s">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A210" s="5" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A210" s="9" t="s">
+    <row r="212" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A212" s="3" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="212" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A212" s="7" t="s">
+    <row r="214" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A214" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="214" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A214" s="12" t="s">
+    <row r="216" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A216" s="4" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="216" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A216" s="8" t="s">
+    <row r="218" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A218" s="4" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="218" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A218" s="8" t="s">
+    <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A219" s="4" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="219" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A219" s="8" t="s">
+    <row r="220" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A220" s="4" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="220" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A220" s="8" t="s">
+    <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A222" s="4" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="222" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A222" s="8" t="s">
+    <row r="224" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A224" s="4" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="224" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A224" s="8" t="s">
+    <row r="225" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A225" s="4" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A225" s="8" t="s">
+    <row r="226" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A226" s="4" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A226" s="8" t="s">
+    <row r="229" spans="1:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="A229" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="A229" s="11" t="s">
+    <row r="231" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A231" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A233" s="4" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A231" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A233" s="8" t="s">
+    <row r="235" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A235" s="8" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A235" s="12" t="s">
+    <row r="237" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A237" s="4" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A237" s="8" t="s">
+    <row r="238" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A238" s="4"/>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" s="10" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A238" s="8"/>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" s="14" t="s">
+      <c r="B239" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="B239" s="14" t="s">
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" s="6" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" s="10" t="s">
+      <c r="B240" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B240" s="10" t="s">
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" s="6" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" s="10" t="s">
+      <c r="B241" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B241" s="10" t="s">
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" s="6" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" s="10" t="s">
+      <c r="B242" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B242" s="10" t="s">
+    </row>
+    <row r="244" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A244" s="8" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A244" s="12" t="s">
+    <row r="246" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A246" s="4" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A246" s="8" t="s">
+    <row r="248" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A248" s="4" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A248" s="8" t="s">
+    <row r="249" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A249" s="4" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A249" s="8" t="s">
+    <row r="250" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A250" s="4" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A250" s="8" t="s">
+    <row r="251" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A251" s="4" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A251" s="8" t="s">
+    <row r="253" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A253" s="8" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A253" s="12" t="s">
+    <row r="255" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A255" s="4" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="A255" s="8" t="s">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A257" s="9" t="s">
+    <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A259" s="4" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="259" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A259" s="8" t="s">
+    <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A261" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="261" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A261" s="12" t="s">
+    <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A263" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="263" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A263" s="7" t="s">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A265" s="5" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A265" s="9" t="s">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A266" s="5" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A266" s="9" t="s">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="5" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A267" s="9" t="s">
+    <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.2">
+      <c r="A269" s="3" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="269" spans="1:1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A269" s="7" t="s">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A271" s="5" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A271" s="9" t="s">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A272" s="5" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A272" s="9" t="s">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A273" s="5" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A273" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -3280,7 +3271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -3294,602 +3285,602 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="13"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="13"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="13"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13"/>
+      <c r="C8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="13"/>
+      <c r="C9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="13"/>
+      <c r="C10" s="15">
+        <v>3</v>
+      </c>
+      <c r="D10" s="15">
+        <v>45698</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="15">
+        <v>6</v>
+      </c>
+      <c r="D11" s="15">
+        <v>45703</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="13"/>
+      <c r="C12" s="15">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="13"/>
+      <c r="C13" s="15">
+        <v>123</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="13"/>
+      <c r="C14" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="19" t="s">
+      <c r="E14" s="15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15">
+        <v>15</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E16" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15">
+        <v>10</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="13"/>
+      <c r="C19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="13"/>
+      <c r="C20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="13"/>
+      <c r="C21" s="15">
+        <v>1</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="13"/>
+      <c r="C22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="13"/>
+      <c r="C24" s="15" t="b">
+        <v>0</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="13"/>
+      <c r="C25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="13"/>
+      <c r="C26" s="15">
+        <v>10</v>
+      </c>
+      <c r="D26" s="15">
+        <v>45708</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="13"/>
+      <c r="C27" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="13"/>
+      <c r="C28" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="13"/>
+      <c r="C29" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="13"/>
+      <c r="C30" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="13"/>
+      <c r="C31" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="13"/>
+      <c r="C32" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" s="13"/>
+      <c r="C33" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" s="13"/>
+      <c r="C34" s="15" t="b">
+        <v>1</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" s="13"/>
+      <c r="C35" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="13"/>
+      <c r="C36" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="13"/>
+      <c r="C37" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="B38" s="13"/>
+      <c r="C38" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E41" s="16" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E42" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E45" s="15" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19" t="s">
-        <v>298</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="19" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>115</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="19">
-        <v>3</v>
-      </c>
-      <c r="D10" s="19">
-        <v>45698</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19">
-        <v>6</v>
-      </c>
-      <c r="D11" s="19">
-        <v>45703</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19">
-        <v>25</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19">
-        <v>123</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="19">
-        <v>15</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19">
-        <v>10</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="17"/>
-      <c r="C21" s="19">
-        <v>1</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="17"/>
-      <c r="C25" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="E25" s="19" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="19">
-        <v>10</v>
-      </c>
-      <c r="D26" s="19">
-        <v>45708</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="17"/>
-      <c r="C27" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="17"/>
-      <c r="C28" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E28" s="19" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" s="19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E30" s="19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="D31" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="E31" s="19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="19" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="19" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="19" t="s">
+      <c r="F45" s="15"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E46" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="F46" s="15" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="B34" s="17"/>
-      <c r="C34" s="19" t="b">
-        <v>1</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E36" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E37" s="19" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E41" s="20" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E42" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E44" s="17"/>
-      <c r="F44" s="17"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E45" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="F45" s="21"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E46" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="F46" s="21" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E47" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>295</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E47" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="F47" s="21" t="s">
-        <v>296</v>
       </c>
     </row>
   </sheetData>
